--- a/jxls-poi/src/test/resources/org/jxls/templatebasedtests/TableTest.xlsx
+++ b/jxls-poi/src/test/resources/org/jxls/templatebasedtests/TableTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\git-repos\jxls2dev\jxls-poi\src\test\resources\org\jxls\transform\poi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\2023Stuff\GitRepos\jxls\jxls-poi\src\test\resources\org\jxls\templatebasedtests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3682AA51-E51B-47DC-99D0-738D49249DBF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F6CA0C-CA6A-473F-8241-CD2E5B9041BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38BEE195-C9BE-4D57-82F8-EA3F59166CB8}"/>
+    <workbookView xWindow="-26192" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{38BEE195-C9BE-4D57-82F8-EA3F59166CB8}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="B3")</t>
+jx:area(lastCell="B3" sheetStreaming="true")</t>
         </r>
       </text>
     </comment>
@@ -531,18 +531,18 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="21.1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -550,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.95" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -574,10 +574,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
